--- a/TenderProcessingCode/TenderProcessing/App_Data/Template.xlsx
+++ b/TenderProcessingCode/TenderProcessing/App_Data/Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Курс Доллара</t>
   </si>
@@ -25,38 +25,53 @@
     <t>Тип сделки</t>
   </si>
   <si>
-    <t>ФИО менеджера</t>
-  </si>
-  <si>
-    <t>Наименование заказчика</t>
-  </si>
-  <si>
-    <t>Срок готовности цен от снабжения</t>
-  </si>
-  <si>
-    <t>Максимальная цена контракта</t>
-  </si>
-  <si>
     <t>Срок поставки</t>
   </si>
   <si>
-    <t>Место поставки (адрес)</t>
-  </si>
-  <si>
-    <t>Окончание приема заявок (согласно документации)</t>
-  </si>
-  <si>
     <t>Дата аукциона</t>
   </si>
   <si>
-    <t>Дополнительные сведения</t>
+    <t>№ конкурса</t>
+  </si>
+  <si>
+    <t>Дата начала</t>
+  </si>
+  <si>
+    <t>Срок сдачи</t>
+  </si>
+  <si>
+    <t>Срок подачи КП</t>
+  </si>
+  <si>
+    <t>Заказчик</t>
+  </si>
+  <si>
+    <t>ИНН заказчика</t>
+  </si>
+  <si>
+    <t>Сумма с НДС</t>
+  </si>
+  <si>
+    <t>Ссылка на закупки</t>
+  </si>
+  <si>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>Подразделение менеджера</t>
+  </si>
+  <si>
+    <t>Место поставки</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,12 +79,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -81,7 +90,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFD00000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -107,19 +116,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:B12"/>
+  <dimension ref="B1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B1" sqref="B1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -438,53 +444,78 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="24">
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="4" t="s">
-        <v>11</v>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TenderProcessingCode/TenderProcessing/App_Data/Template.xlsx
+++ b/TenderProcessingCode/TenderProcessing/App_Data/Template.xlsx
@@ -82,18 +82,20 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,15 +118,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -424,97 +427,99 @@
   <dimension ref="B1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
     </row>

--- a/TenderProcessingCode/TenderProcessing/App_Data/Template.xlsx
+++ b/TenderProcessingCode/TenderProcessing/App_Data/Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>№ конкурса</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Менеджер</t>
   </si>
   <si>
-    <t>Запрос</t>
-  </si>
-  <si>
     <t>Замена</t>
   </si>
   <si>
@@ -65,6 +62,12 @@
   </si>
   <si>
     <t>Срок поставки *</t>
+  </si>
+  <si>
+    <t>Каталожный №</t>
+  </si>
+  <si>
+    <t>Количество</t>
   </si>
 </sst>
 </file>
@@ -484,90 +487,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
